--- a/story/主线剧情/main/level_main_08-10_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-10_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="419">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -851,6 +857,834 @@
   </si>
   <si>
     <t xml:space="preserve">[name="タルラ"]  行こう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t know how much further I have to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can hear the winter feathers chirp every now and then. Is that supposed to mean something? Does it mean that spring will be here soon?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s still very cold here, but it shouldn’t be much longer until it starts to get warmer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been three weeks. We’ve finally found two more villages willing to trade with the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ve set up camp at an abandoned settlement a few kilometers away from them. There’s plenty of fuel here to last us a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can’t imagine how awful tree bark tastes. I don’t ever want to listen to the old man tell me how nutritious they are anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 7th
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very well aware where this road is taking us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonetheless, we have to get to the end of the road. Even if I don’t make it, Yelena, Alina, and Eno and Sasha as well... I am sure they will make it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the road beneath our feet is just way too murky and hard to see.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will they reject us? We can’t bring their hopes up too much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a bad thing to make a promise you cannot fulfill. The Ursus Empire’s promise about bread and bed was nothing more than a ruse to cover up their atrocities and lies. And lies are what lead to tyranny.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will they come to loathe us? It’s very likely. If it wasn’t for how hard life is in the Northern Plains, people here would probably report the Infected to the Patrol Unit the moment they spotted them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This kind of animosity probably came from how worried they are about their own situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not like Buldrokkas'tee. We certainly need to be on the lookout and avoid that, but I don’t believe that’s in their nature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can’t hold it against them just because they want to look out for themselves. Definitely not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will they try to hurt us? I have no idea. And it’s probably not something I can worry about too much...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No matter the case... I think most people are only like that because of the circumstances they are in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If they had a teacher like Alina, a team like ours, or the chance to live in harmony with Infected... I’m sure things would improve.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of them were simply brainwashed by Ursus’s twisted ideology. We can help them. Knowledge can change the way people think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s just... it’s a really difficult thing to do. That’s even though I believe... if you always hold fast to your beliefs in your actions, getting everyone to accept the truth should be one of the simplest things to accomplish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【The words above were crossed out. Naturally, the letter was never mailed out.】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Oh, good morning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Wouldn’t it be dangerous for you to head outside right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I talked to the soldiers, and they said the patrol unit all went to the village to the west. Did someone see you trading with them the other day? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s not impossible. Anyway, you should stay away from the west. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I know. I’ll go to the village to the east instead. I should still be able to barter for some things there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Oh, you don’t need to worry so much. Remember, we used to find ourselves in situations much more dangerous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What are you trying to get this time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Some canned fruits and dried vegetables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Are those things really worth heading outside for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Our fighters will get sick if things don’t improve soon. It’s about time you pick up a few things about taking care of yourself... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’re having trouble just getting enough food to feed ourselves. I really don’t think we should go out of our way for....
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Now, Talulah, that’s not right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Uh huh, ahem—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  “It’s precisely because there are times we don’t get enough food on the table or even clothes to keep ourselves warm that things like songs, music, fruits, and flower, and our desire for all the things that delight our taste buds, our eyesight, and our sense of smell are so important.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  “These are the things that remind us what we are fighting for: we’re fighting so that everyone can lead a decent life.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Naturally, your health is part of all that. With just some vegetables and fruits, we can help a lot of people fight off their diseases.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Rebutting me with my own words... That’s cheating.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Hey now... Cheating? That’s quite a serious charge, isn’t it? Here, say it after me: “That’s smart!”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Okay, okay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Do you need someone to go with you? A bodyguard, that is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That probably isn’t a good idea. I may be Infected, but I am not that special. I wouldn’t want anyone to find out about us just because of me. Besides, it isn’t too hard for me to hide my infection. Easier than for some of our soldiers.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Okay, but you should still be careful. I don’t think we can completely trust the villagers there... There are a lot of things that don’t add up there. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Yep, okay. Oh, I’ll try to get us some pears too. Or do you reckon the Yetis like apples more?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I think they are more of a fan of raspberries... but let’s not worry about them. They know how to look for those themselves. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’ve got a meeting now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Okay, I’m leaving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  —Alina!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  What’s up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m thinking about putting together an Infected education group. Would you like to run it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Huh? Am I really the right person for that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You have a much better reputation than me among the noncombatant Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’ll be easier for me to introduce you to everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That’s not what I mean...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Knowledge is a means of fighting itself, Alina. I insist. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’ll leave the decision to you. I don’t need to write up any speeches or anything, do I? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Oh, I can hear the applause already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Stop teasing me. Okay, I’ll get going now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  See you later. Don’t stay out too late! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  That won’t work. We need to hang them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  The captain isn’t around right now, but I know that’s what he’d order us to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Remember, guerrilla fighters. We are not an army. At least not yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It gives a bad impression. When they first joined us, it was because they trusted us. They only started having doubts because of hunger. That’s the only reason they made this mistake. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It only happened because we didn’t keep our end of the bargain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  What bargain? Feeding them what little food we have left?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We promised the Infected a place to stay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Not everyone came here for a noble end. That’s not realistic. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We could’ve earned even more of their trust if we had the machines exchanged for the provisions sooner.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  In any case, I cannot accept keeping them on the team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Then let them go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I won’t tolerate any excessive violence. Also, give them enough rations for a week before you exile them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Absolutely not! Not even our warriors get that kind of treatment! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  We’re not going to give in on this one. It has nothing to do with achievements or whatever. We simply can’t abide by their behavior. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Fine. At least don’t go overboard with the language. Don’t chew them out too much.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...We can accept that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Now that the patrols are trying to smoke us out to the west... we can’t let them find the group of Infected there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  That’s all the more reason to put these bastards over...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Hm? Someone’s knocking. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Come in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  *Pant*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  It’s the Patrol Unit! They’re investigating the village that traded food with us! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Should we get out of here? If we leave now, we’ll be long gone by the time they found out about us! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  —
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Draw the patrol unit our way. I’ll ambush them somewhere close by. We must let the patrol squad think we’re behind it all, even if we have to leave our tracks behind for them to find. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah! Think this through again! The Fourth Army’s sentries are just ten kilometers away. Once they get word from the patrols about us, they will definitely come after us!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If the villages are pillaged because they gave us a helping hand... No, suppose they didn’t. If they come in harm’s way because of us, the Infected, we’ll never find another village willing to trade with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Then let’s take it upon ourselves to keep the news from spreading.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That’s exactly how word about this gets out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Listen to me. If you try to put a lid on this by killing everyone there, the bodies will become evidence. If you then get rid of their bodies, then the deserted village will be evidence instead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If you want to keep any bad news about us from spreading, then there’s only one way to go about it: Don’t let anything bad happen in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What we need to do now is to widen the path we have ahead of us, not just for ourselves, but also for the descendants of those who are following us down this path. Any questions? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  You have a point. Let’s do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let’s go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Right, what you said just now makes sense. Protect all non-combatants, and help them evacuate first. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We have a tough battle ahead of us. I’ll be fighting alongside you, but neither FrostNova and Patriot are here with us; remember, one day, you may not even have me fighting next to you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But as long as what you are fighting for is just and feasible, then we don’t need anyone else by our side. You don’t need anyone by your side. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Yeah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼마나 더 가야 할지 잘 모르겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가끔 윈터 페더들의 맑은 울음소리가 들려, 그건 무엇을 의미하는 걸까? 곧 봄이 온다는 의미일까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아직 꽤 춥지만, 이제 곧 따뜻한 봄이 찾아올 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3주 만에 감염자와 물자를 교환하겠다는 마을 두 곳을 더 찾아냈어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들과 몇 킬로미터 떨어진 버려진 거주지에 캠프를 세웠어. 그곳은 연료가 넉넉한 편이라 한동안은 버틸 수 있을 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나무뿌리는 정말 맛이 없더라. 영양이 풍부하다는 어르신의 말을 더는 듣고 싶지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12월 7일
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 길이 어디로 통하는지 잘 알고 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 종착지에 우린 반드시 가야 한다. 설령 내가 가지 못한다 해도 옐레나와 알리나, 그리고 이노는…… 분명 갈 수 있을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제는 우리 발아래 놓인 길이 선명하지 않다는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들이 우리를 거절할 수 있을까? 우리도 그들에게 너무 많은 환상을 심어주면 안 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지킬 수 없는 약속을 하는 건 좋지 않아. 우르수스 제국은 빵과 이불을 약속하며 자신들의 폭행과 거짓말을 덮어버렸지. 속임수는 또 다른 통치의 시작이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들이 우리를 싫어할까? 아마 그럴지도. 북툰드라 사람들도 안락하게 살고 있었다면 대부분은 감염자를 보자마자 감시팀에 신고했을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런 종류의 악의는 자신들이 처한 환경에 대한 불안에서 비롯된 거겠지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">난 불드록카스티와 달라. 우리가 경계해야 하는 건, 그들의 '뼈에 새겨진 것'은 절대 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리의 이익만 생각하는 이기적인 행동 때문에 그들을 증오해선 안 돼, 절대로.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들이 우리를 해치려 할까? 나도 잘 모르겠어, 어쩌면 내 괜한 걱정일지도 모르지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어쨌든…… 난 많은 사람이 어쩔 수 없이 그렇게 됐다고 생각해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알리나 같은 선생님, 우리 팀원들, 그리고 감염자와 일반인이 한데 어울리며 평화롭게 살 수 있다면 그들은 변할 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우르수스가 사람들에게 왜곡된 생각을 주입해서 그런 것뿐이야. 그러니까 우리가 도와줄 수 있어, 지식은 사람들의 생각을 바꿔줄 수 있거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다만 문제는 그게 쉽지 않다는 거야. 설령…… 행동을 통해 강력한 신념을 지킨다 해도, 모든 사람에게 진실을 알리는 게 가장 먼저 해야 할, 그리고 가장 기본적인 일이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【위 내용은 모두 지워졌다. 물론, 편지는 한 번도 발송된 적이 없다.】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아, 좋은 아침.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  지금 나가면 위험하지 않을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  전사들에게 물어봤는데, 감시팀이 서쪽 마을에 모여 있다고 하네? 며칠 전 너희가 그들과 접촉한 게 탄로난 건 아닐까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럴지도. 그러니까, 당분간은 서쪽에 가지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  알겠어, 동쪽 마을에 가도 물건을 바꿔올 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  에이, 너무 걱정하지 마. 예전엔 지금보다도 더 위험했었는데 뭐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  뭘 바꿔 오려는 건데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  과일 통조림이랑 말린 채소랑 과일.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……특별히 중요한 것 같진 않은데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  이런 식으로 지내다간 전사들이 병에 걸릴지도 몰라. 건강 상식이 이렇게 부족해서야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  배를 채우기도 힘든 마당에 그런 건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아니, 탈룰라. 그건 아니지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  흠흠……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  "배불리 먹지 못하고 따뜻하게 입지 못하는 때가 있기 때문에, 시와 음악, 열매, 꽃, 미각과 시각, 후각, 촉각에 대한 갈망이 소중한 것이다."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  "바로 이런 것들이 우리가 어떤 삶을 살기 위해 싸우고 있는지 일깨워주지."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  건강한 신체도 당연히 그중 하나야. 약간의 채소와 과일만으로도 많은 사람이 질병에서 벗어날 수 있다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……내 말투로 반박하다니 너무 교활하잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  뭐, 교활? ……탈룰라 학생, 그런 말 하면 안 돼요. 자, 선생님 따라 해 보세요, 똑. 똑. 하. 다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네네, 어련하시겠어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  혹시 호위 필요해?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  글쎄…… 난 특별한 감염자도 아닌걸. 나 때문에 우리 위치가 드러나면 안 되잖아. 게다가, 나는 감염자라 신분을 숨기기 쉽다지만, 다른 전사들은 어렵지 않을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럼 조심해. 마을 사람들이라고 다 믿을 만한 건 아니거든…… 이랬다저랬다 한 적이 한두 번이 아니라서.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  응, 알았어. 아, 내가 배로 더 많이 바꿔올게. 아니다, 눈의 악마 소대원들은 사과를 더 좋아하려나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아마 산딸기를 더 좋아할걸…… 신경 쓰지 마. 알아서 찾아 먹을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럼 나는 회의가 있어서.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  응, 그럼 나 갔다 올게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……알리나!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  왜?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  감염자 교육팀을 준비 중인데, 네가 팀장이 되는 게 어때?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  뭐? 내가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전사가 아닌 감염자들 사이에선, 네가 나보다 평판이 더 좋으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  나중에 모두에게 널 소개하기도 편할 것 같거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  하지만 난……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  지식의 전사도 전사야, 알리나. 더는 나도 양보할 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그렇다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그럼 네가 알아서 해줘, 설마 연설문을 써야 하는 건 아니겠지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  훗, 벌써부터 박수 소리가 들리는 것 같은데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그만 좀 놀려…… 나 간다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그래, 얼른 다녀와!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그건 안 돼, 반드시 교수형에 처해야 한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  대위님이 여기 계셨다면, 분명 이렇게 명령하셨을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  유격대의 전사여, 우리는 군대가 아니다, 적어도 아직은.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  상황이 좋지 않아. 우리를 믿고 합류했지만 배고픔 때문에 우리에 대한 믿음을 잃고 돌이킬 수 없는 실수를 저지를지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그건 우리가 먼저 약속을 지키지 못해서지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그렇다고 얼마 남지 않은 식량을 저들에게 양보하라는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  감염자들에게 몸을 의탁할 수 있는 곳을 제공하겠다고 약속했지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……여길 찾은 사람들에게 숭고한 목적 의식 같은 게 있을 거라고 기대하진 마, 그거야말로 말이 안 되니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  기계를 넘겨주고 식량을 얻었다면 우리에 대한 신뢰를 높일 수 있었을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  어쨌든 저들이 우리 진영에 계속 머무는 건 난 반대야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럼 저들을 풀어줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  불필요한 폭력을 쓰지 말고, 일주일 치 식량을 내줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그건 안 돼, 우리 전사들도 그런 호사를 누리지 못하는데!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  이건 우리도 절대 양보할 수 없어. 업적 때문이 아니라 그들에게는 지극히 과분하니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  좋아, 대신 자극적인 말은 피하도록 해, 지나치게 질책하지도 말고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……최대한 노력해보지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  좋아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  서쪽에서 감시팀이 움직이고 있으니…… 놈들이 감염자의 흔적을 발견하게 내버려 둘 순 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그렇다면 저들을 어디에 데려……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  응? 누가 찾아온 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  들어와.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  허억, 허억……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  탈룰라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  감시팀이야! 놈들이 우리와 식량을 거래했던 마을을 수색하고 있어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  지금 철수할까? 지금 철수하면, 감시팀이 우리 흔적을 발견하기 전에 떠날 수 있을 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이 근처에 잠복해 있을 테니 감시팀을 유인해. 설사 흔적이 남더라도, 그들에게 이게 우리가 한 짓이라는 걸 알게 해야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라, 다시 생각해 봐! 10km 내에 제4군단 초소가 있다. 감시팀이 신호라도 보낸다면, 놈들이 바로 출동할 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  두 마을이 우리를 감싸줬다가 약탈이라도 당하면…… 아니, 우리를 감싸주지 않았더라도 감염자 때문에 피해를 보게 된다면, 어느 마을도 다시는 우리와 물자를 교환하려 하지 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  그럼 소식을 차단해 버리면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자칫하면 오히려 소문을 더 키울 수도 있어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  무언가를 숨기려고 사람을 해치면 그 시신이 새로운 증거가 되지. 흔적을 없앤다며 그 시신을 훼손하면 그 공백 또한 증거가 되는 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  나쁜 이야기가 퍼지지 않도록 막을 수 있는 유일한 방법은, 애당초 나쁜 일이 일어나지 않게 하는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리가 지금 해야 할 일은, 우리의 길과 우리의 뒤를 이으려는 사람들을 위한 길을 넓히는 거다. 질문 더 있나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  아니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  일리가 있는 말이군. 그럼 그렇게 하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  가자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네 말이 맞아, 비전투 대원들 먼저 여기서 탈출시키는 게 좋겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  힘든 싸움이 될 거다. 이번 싸움에서는 내가 너희와 함께할 테지만 우리 곁에는 프로스트노바도, 패트리어트 씨도 없어. 기억해, 언젠간 너희들 곁에 나조차 없는 날이 올 거라는 걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 그것이 옳고, 실현 가능한 일이라면, 우리 곁에 누구도 있어줄 필욘 없어. 너희 역시 누군가의 곁에 있어 줄 필요도 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  알았어!
 </t>
   </si>
 </sst>
@@ -1209,858 +2043,1494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>273</v>
+      </c>
+      <c r="D63" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>292</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>294</v>
+      </c>
+      <c r="D84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>312</v>
+      </c>
+      <c r="D102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>314</v>
+      </c>
+      <c r="D104" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
